--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-8.712699931092276</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69329816745296</v>
+        <v>-10.69243407546541</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.064481946447266</v>
+        <v>-3.980926869711371</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.732313588808629</v>
+        <v>-6.843205393878049</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.041960312169349</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05031217364399</v>
+        <v>-11.05112389642017</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.116811880905646</v>
+        <v>-4.016302271989715</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.747500660105032</v>
+        <v>-6.842498409524596</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.237085207096531</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88582366409442</v>
+        <v>-11.88302191128629</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.861420329372095</v>
+        <v>-3.773701900332531</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.580560706570182</v>
+        <v>-6.67604287119489</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.392083171126292</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.73237196584043</v>
+        <v>-12.74109143953302</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.964443660433638</v>
+        <v>-3.85250447113688</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.916915058876967</v>
+        <v>-7.025829926217286</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.508558731727424</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.44045607273234</v>
+        <v>-13.46131211115921</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.716999136725015</v>
+        <v>-3.608044992476171</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.486531787560906</v>
+        <v>-6.579762076096837</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.614320600469861</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.13048589400551</v>
+        <v>-14.15267734732224</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.778637698503861</v>
+        <v>-3.65711494352696</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.659441831191582</v>
+        <v>-6.751258151020607</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.721629383755063</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.73997186819639</v>
+        <v>-14.77450936309286</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.594599197457718</v>
+        <v>-3.486247299139593</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.362220372078717</v>
+        <v>-6.425102702627527</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.843717344833509</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.65174602269987</v>
+        <v>-15.68873177822775</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.441144315849847</v>
+        <v>-3.327935173177441</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.16731525967394</v>
+        <v>-6.193879542139803</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.971323069653933</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.30323210440701</v>
+        <v>-16.34072845974571</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.434729087457401</v>
+        <v>-3.314319178222046</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.729089698955685</v>
+        <v>-5.763234424766908</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.101743392789975</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.82558880318619</v>
+        <v>-16.88853659524921</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.283185682064422</v>
+        <v>-3.172333153903527</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.494528001243322</v>
+        <v>-5.532705156329794</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2261722069734237</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.45421572413167</v>
+        <v>-17.50861424243904</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.394116764042367</v>
+        <v>-3.302431367241759</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.896982207244102</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6704787944463808</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.35219059143997</v>
+        <v>-18.40005605062932</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.173655476490541</v>
+        <v>-3.079600372875581</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.253312230333481</v>
+        <v>-4.288923294062976</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.587375873619802</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.09169622515203</v>
+        <v>-19.12031599916404</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.057382734953172</v>
+        <v>-2.962384985533608</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.678769612427175</v>
+        <v>-3.743196834711309</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.514594725588113</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.84308966984437</v>
+        <v>-19.89277495912872</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.986278438219758</v>
+        <v>-2.886253244508971</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.082454494895078</v>
+        <v>-3.145271363929679</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>3.436788317669117</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.69120904793139</v>
+        <v>-20.76104339128915</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.986710484213535</v>
+        <v>-2.871746972960338</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.460975971301183</v>
+        <v>-2.554952521099092</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>4.317927232486864</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.40216036914564</v>
+        <v>-21.47766367963387</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.907436590506884</v>
+        <v>-2.792538540767895</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.041158188378395</v>
+        <v>-2.133773138680765</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5.113757953420665</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.30558163443611</v>
+        <v>-22.38924144959473</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.815541716860808</v>
+        <v>-2.694097515700957</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.823852145811425</v>
+        <v>-1.897967672198437</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>5.784856281706468</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.14702393807384</v>
+        <v>-23.23352478294912</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.823082883297642</v>
+        <v>-2.712177985925381</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.338847787039683</v>
+        <v>-1.441268872170506</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.295634458884773</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.95036764044215</v>
+        <v>-24.03017831856531</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.598157120476789</v>
+        <v>-2.491913082916182</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.111787978855628</v>
+        <v>-1.196560639755804</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.621754712463993</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.39609509068871</v>
+        <v>-24.48606539581705</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.435668549908126</v>
+        <v>-2.33398063373644</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7209827390301049</v>
+        <v>-0.8063576458610007</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>6.755163450030046</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.05903693738236</v>
+        <v>-25.14847045809418</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.21823158431274</v>
+        <v>-2.13131178574652</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5924817866385635</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>6.701443278525214</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.63007081812708</v>
+        <v>-25.71634909385405</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.21209129427997</v>
+        <v>-2.127096064231484</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2055649607570331</v>
+        <v>-0.276446688342138</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>6.481871466908665</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.06884625556469</v>
+        <v>-26.15429971621263</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.150793132375009</v>
+        <v>-2.07942698958476</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2534958814605922</v>
+        <v>-0.3125552595796185</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>6.133086404712155</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.34437376886881</v>
+        <v>-26.4307829676242</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.800822785112829</v>
+        <v>-1.733305779358048</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2380469641073555</v>
+        <v>-0.289303329732713</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>5.698664845550628</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.25894649282655</v>
+        <v>-26.35118176634651</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.694159793861287</v>
+        <v>-1.63980055246244</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.3977337818678883</v>
+        <v>-0.4483486246540013</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.222091678345184</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.16652792706681</v>
+        <v>-26.2875138976272</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.766246013307831</v>
+        <v>-1.715539524401826</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3664955472875299</v>
+        <v>-0.3955342749904783</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>4.739325298803459</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.34268486180223</v>
+        <v>-26.4437705320432</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.483727210286224</v>
+        <v>-1.43219590630119</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7033474071022999</v>
+        <v>-0.728196597895896</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>4.273982546774283</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.24796205074234</v>
+        <v>-26.3720770816819</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.388258137964357</v>
+        <v>-1.349452552341481</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7798064556979801</v>
+        <v>-0.7967871724836989</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.83927022183945</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.0660575950594</v>
+        <v>-26.17871686101245</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.46784624693921</v>
+        <v>-1.429250138161802</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9240312638024345</v>
+        <v>-0.9354739364861031</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.434493169438275</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.731077934551</v>
+        <v>-25.83880140233272</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.3793291874263</v>
+        <v>-1.343469369942813</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.410384129766874</v>
+        <v>-1.41452129746486</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>3.045652053012171</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.74172197676132</v>
+        <v>-25.86277340883592</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.2085139122503</v>
+        <v>-1.179252615399043</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.697105562000675</v>
+        <v>-1.715709724338768</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.659631482546716</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.39378093643961</v>
+        <v>-25.50891464762975</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.176241385745445</v>
+        <v>-1.153277486561058</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.195529531185187</v>
+        <v>-2.220339445070258</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.262297888485336</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.85481010535427</v>
+        <v>-24.94755597868506</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.194046917610193</v>
+        <v>-1.177419693001201</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.304051629440254</v>
+        <v>-2.320168254238419</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.839136060844878</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.43504469164285</v>
+        <v>-24.54009732964486</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.360607194362632</v>
+        <v>-1.346009276694107</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.521776625698159</v>
+        <v>-2.521946825635101</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.387640239839142</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.78972508457417</v>
+        <v>-23.88566547979834</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.360253702185905</v>
+        <v>-1.345001169375295</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.722468535958978</v>
+        <v>-2.702240928068511</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9138855713789604</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.03326491868208</v>
+        <v>-23.12158559365237</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.337865864326554</v>
+        <v>-1.32904165221123</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.844711367592174</v>
+        <v>-2.846400274658757</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.429936963963771</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.65582692005796</v>
+        <v>-22.73203721489965</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.415607958600723</v>
+        <v>-1.402947701752774</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.151084346391406</v>
+        <v>-3.164294479958707</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.04461927121683885</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.00477288434461</v>
+        <v>-22.1107943527569</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.33230163561882</v>
+        <v>-1.308015413847418</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.378379816026612</v>
+        <v>-3.39490230221287</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.4909313228499585</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.51712388039883</v>
+        <v>-21.62251691827473</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.501624388270864</v>
+        <v>-1.474693521325433</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.609458961183077</v>
+        <v>-3.62624329342617</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.8978230746444305</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.08624310157479</v>
+        <v>-21.13528686801989</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.420543756772054</v>
+        <v>-1.37955175657461</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.614460220868617</v>
+        <v>-3.627041923899515</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.258742336272967</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.24167173755788</v>
+        <v>-20.33364516502101</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.148695180566454</v>
+        <v>-1.102636459169261</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.720691166126382</v>
+        <v>-3.742817157928899</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.570964769318384</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.43581431304396</v>
+        <v>-19.49348590706176</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.155843577918036</v>
+        <v>-1.111630871221527</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.861826190760189</v>
+        <v>-3.879749553350512</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.839450089581112</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.00884813276959</v>
+        <v>-19.07080090981664</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.1790824154621</v>
+        <v>-1.128428295767462</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.08506304651446</v>
+        <v>-4.108930314594926</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.072641175677995</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52927707967716</v>
+        <v>-18.57292681735148</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.167312435207388</v>
+        <v>-1.119001837721419</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.20141434186888</v>
+        <v>-4.217007274553375</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.277252654671442</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.08451845984089</v>
+        <v>-18.10667063624908</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.130719448764764</v>
+        <v>-1.083613343140233</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.347184041708657</v>
+        <v>-4.342641012622579</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.460656851423975</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.31552896012926</v>
+        <v>-17.35337880764469</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.226856228531559</v>
+        <v>-1.171462695208215</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.646670469213142</v>
+        <v>-4.657864388142817</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.630676451624904</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.46651930544901</v>
+        <v>-16.51287914981156</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.150973241260914</v>
+        <v>-1.099166998916204</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.604762007816777</v>
+        <v>-4.59925014832041</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.793042621135413</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.8498980262094</v>
+        <v>-15.86287249832555</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.106668888444513</v>
+        <v>-1.034333915243977</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.828653478713134</v>
+        <v>-4.836155368241442</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.954278665409438</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.95611269581044</v>
+        <v>-14.99270568225307</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.060021013419443</v>
+        <v>-0.9987752207258487</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.95415629375392</v>
+        <v>-4.954509785930647</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.122144026276489</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.16656828063731</v>
+        <v>-14.19306710158896</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.059824628876817</v>
+        <v>-1.000647420032216</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.134790796061214</v>
+        <v>-5.141454778207653</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.299641523783966</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.43563810528658</v>
+        <v>-13.49706719021996</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.007979109623582</v>
+        <v>-0.9443636101156351</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.030968834526327</v>
+        <v>-5.045972613582944</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.485817730750998</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.74054156281366</v>
+        <v>-12.79448185052158</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.007403048298546</v>
+        <v>-0.9349371520695924</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.11253388123028</v>
+        <v>-5.124500246027617</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.681369727240347</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.37918091207918</v>
+        <v>-12.42560621795594</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.203892329347171</v>
+        <v>-1.133167709396167</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.281202018740237</v>
+        <v>-5.296572382276423</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.884987645277204</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.70895974500554</v>
+        <v>-11.73912441075288</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.29445178810339</v>
+        <v>-1.220218430990803</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.763129686344174</v>
+        <v>-5.77304055959536</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.092667384841298</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.28504407129329</v>
+        <v>-11.31719876707257</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.310777889747023</v>
+        <v>-1.231438534526163</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.896775913752514</v>
+        <v>-5.905403741325211</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.300681229531005</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.51310880344228</v>
+        <v>-10.54081211625538</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.299885093782706</v>
+        <v>-1.219825661905552</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.350502761035372</v>
+        <v>-6.364262771322026</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.502485061982042</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.03107639741561</v>
+        <v>-10.08303974739442</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.505290233066547</v>
+        <v>-1.417584896329824</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.18923177463099</v>
+        <v>-6.214722488263831</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.689493183839894</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.471642296988659</v>
+        <v>-9.506192884187973</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.493062022212375</v>
+        <v>-1.408498838157666</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.411892569060226</v>
+        <v>-6.441599004208101</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.85480331321456</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.179435189864174</v>
+        <v>-9.221238912837805</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.569141394025645</v>
+        <v>-1.490116254072986</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.289335522158828</v>
+        <v>-6.328311307718646</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.99178677428664</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.536131797433121</v>
+        <v>-8.602064634544055</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.658430899406217</v>
+        <v>-1.565933779829422</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.711680119530069</v>
+        <v>-6.725073545337155</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.094260227855467</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.961117856624512</v>
+        <v>-8.030520153988503</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.569625809230789</v>
+        <v>-1.488113131738202</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.573556324549859</v>
+        <v>-6.596428577614354</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.158814106777221</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.501486380760036</v>
+        <v>-7.564800757302623</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.567072810176652</v>
+        <v>-1.469522061702951</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.63553528620259</v>
+        <v>-6.666577136240322</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.183871251123206</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.07349900086401</v>
+        <v>-7.158873907694907</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.706806958406395</v>
+        <v>-1.61362903908183</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.814520158351828</v>
+        <v>-6.840010871984668</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.169605977047336</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.645341421031043</v>
+        <v>-6.728019313476543</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.588779848288234</v>
+        <v>-1.500262788775324</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.004672764825057</v>
+        <v>-7.005641595235344</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.117475172102878</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.409313385400405</v>
+        <v>-6.482996865793639</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.744578252104774</v>
+        <v>-1.662044374990533</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.031289416502285</v>
+        <v>-7.04140976659894</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.030075680397667</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.268453299126275</v>
+        <v>-6.354561374916307</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.735151794058731</v>
+        <v>-1.653390362812152</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.081262736449154</v>
+        <v>-7.100613160049225</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.911944631174754</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.992650847462473</v>
+        <v>-6.080055061233836</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.654372285525282</v>
+        <v>-1.594121507847658</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.045494565085558</v>
+        <v>-7.050613655496673</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.767468554038244</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.893607576464816</v>
+        <v>-5.987872156925243</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.940700948673831</v>
+        <v>-1.870107251751244</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.084431073736852</v>
+        <v>-7.081524582505988</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.601121915197603</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.785006924392698</v>
+        <v>-5.89166991564424</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.885660907527214</v>
+        <v>-1.822006131110742</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.821171048195424</v>
+        <v>-6.824627416145639</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.419338479421197</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.518814223014723</v>
+        <v>-5.632573242406481</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.897483256993293</v>
+        <v>-1.837664525309447</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.732104111963162</v>
+        <v>-6.725440129816723</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.226427230871717</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.59926642397713</v>
+        <v>-5.729089698955685</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978367503949477</v>
+        <v>-1.918954633653724</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.554245177858313</v>
+        <v>-6.538416583722666</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.0234938958175</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.670737305190112</v>
+        <v>-5.801136641493704</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.065326579424221</v>
+        <v>-2.006974185658648</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.3860614555535</v>
+        <v>-6.373453567916918</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.812885712954771</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.876299552108054</v>
+        <v>-6.000506229167509</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.926273230942249</v>
+        <v>-1.868418344684661</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.296601750235985</v>
+        <v>-6.262260639882138</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.593758530922179</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.022448928730242</v>
+        <v>-6.157155632668761</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.175328107900404</v>
+        <v>-2.133341092686988</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.150386912099589</v>
+        <v>-6.119174862124914</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.361056902601021</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.500069228699251</v>
+        <v>-6.636844516486763</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.165875465248677</v>
+        <v>-2.109552378423572</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.921690566060318</v>
+        <v>-5.878747812739457</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.11087606237064</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.974913960465813</v>
+        <v>-7.092417378470305</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.215233446961985</v>
+        <v>-2.1634664815258</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.972161393515172</v>
+        <v>-5.937728637041432</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.838055055821856</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.458857842707376</v>
+        <v>-7.577919244750032</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.170497048151807</v>
+        <v>-2.111241285490154</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.602892991864288</v>
+        <v>-5.564270698481196</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.53338052222117</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.861459247393294</v>
+        <v>-7.970243191705196</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.193487131941878</v>
+        <v>-2.152573685561483</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.441739836185482</v>
+        <v>-5.402999712076815</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.189790892671776</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.234066186268818</v>
+        <v>-8.352237311718238</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.462782709093341</v>
+        <v>-2.416671618484782</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.045488198377801</v>
+        <v>-5.011330380263738</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.80283016640317</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.147620893958779</v>
+        <v>-9.253694731582444</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.390539382012697</v>
+        <v>-2.339688877775433</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.04707236702165</v>
+        <v>-5.001354045498342</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-1.367392205192729</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.89178738748249</v>
+        <v>-9.9822813847245</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.481151209980283</v>
+        <v>-2.428860552430429</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.876833153170685</v>
+        <v>-4.831782539092306</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8831738419688634</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.65103621387987</v>
+        <v>-10.73379266014242</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.531150714532834</v>
+        <v>-2.505005385757908</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.553125965409008</v>
+        <v>-4.504383321929263</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3571455973675873</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.78761830047863</v>
+        <v>-11.87592588314607</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.619497574108802</v>
+        <v>-2.5823154340383</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.44982769598779</v>
+        <v>-4.397615592254986</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2014397953047567</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.6043161517455</v>
+        <v>-12.68825090526381</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.762151305872249</v>
+        <v>-2.725309565675632</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.089540614086331</v>
+        <v>-4.030428866755937</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7789932968384423</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.63208810942668</v>
+        <v>-13.72419245991823</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.856939578446346</v>
+        <v>-2.822258068218614</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.761499874084042</v>
+        <v>-3.720285304738288</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.355441691556144</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.63113555467312</v>
+        <v>-14.72106658289293</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.888858612774474</v>
+        <v>-2.858261901033361</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.317998115320571</v>
+        <v>-3.266244242187228</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.909869834648717</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.00728059866979</v>
+        <v>-16.07721968045029</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.804046674965773</v>
+        <v>-2.757621369089012</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.066809192999215</v>
+        <v>-3.016718042326771</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>2.421758714162388</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.42337025863656</v>
+        <v>-17.5060612433849</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.033332174632922</v>
+        <v>-3.00336389342821</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.791595894963291</v>
+        <v>-2.752135694198329</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>2.867529785630816</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.89565208240002</v>
+        <v>-18.97525328367772</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.234429946281834</v>
+        <v>-3.198779605643814</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.659992066798261</v>
+        <v>-2.630652216129953</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.22724613853152</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.53253033748967</v>
+        <v>-20.59537339112995</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.451631250426069</v>
+        <v>-3.403818160448086</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.711994693685597</v>
+        <v>-2.696571960938043</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.486981671815743</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.00572862245205</v>
+        <v>-22.07397879716597</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.448292713201429</v>
+        <v>-3.42501459874884</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.610044931457076</v>
+        <v>-2.581464434353588</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>3.636115493894704</v>
       </c>
       <c r="E93" t="n">
-        <v>-23.9967274848047</v>
+        <v>-24.06624761289427</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.680903657790376</v>
+        <v>-3.622878571595846</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.577654574226646</v>
+        <v>-2.554913244190567</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>3.671351608033969</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.1702592333767</v>
+        <v>-26.23342959458802</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.482293423681392</v>
+        <v>-3.430447904428156</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.739187406687862</v>
+        <v>-2.709206033180309</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>3.599568670545429</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.34334584365207</v>
+        <v>-28.40972381905963</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.992277896275147</v>
+        <v>-3.927942320110905</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.949122482754939</v>
+        <v>-2.936409856695623</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.430115745896292</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.37795516677051</v>
+        <v>-30.46016173631371</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.973398795577378</v>
+        <v>-3.908866834870511</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.282858374493379</v>
+        <v>-3.269831533165861</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.185465026193908</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.63886494450819</v>
+        <v>-32.73158463323329</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.120189695038811</v>
+        <v>-4.069810513703849</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.367107343279886</v>
+        <v>-3.35363536365575</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.881220300184247</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.14741563049711</v>
+        <v>-35.22881047726412</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.406308881341892</v>
+        <v>-4.342968320193622</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.784712527022422</v>
+        <v>-3.781897681911451</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.555202174978628</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.55058637091298</v>
+        <v>-37.6275298347138</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.25367881481305</v>
+        <v>-4.204818340607728</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.185664301550283</v>
+        <v>-4.168264631073629</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.21339555175915</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.17567164449611</v>
+        <v>-40.24800661769665</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.3766286307997</v>
+        <v>-4.322531235457688</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.436486639392071</v>
+        <v>-4.418877492069949</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.909137172918091</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.61848587791673</v>
+        <v>-42.68652657578517</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.531850973291204</v>
+        <v>-4.477648839526458</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.952807786561222</v>
+        <v>-4.925588888953273</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.606506555935015</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.98052060280389</v>
+        <v>-45.05572279032677</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.618574387314797</v>
+        <v>-4.568299944402569</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.147163022246645</v>
+        <v>-5.13786748722902</v>
       </c>
     </row>
   </sheetData>
